--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/56_Manisa_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/56_Manisa_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{545893DA-5F90-402A-8E6A-2DD0E274131C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7CE2CF-C000-4D13-BD34-59DF9A5D9B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="650" xr2:uid="{944A44BB-086B-47FD-B859-85952EE8A90D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{9E11F5BA-0EFF-49E7-983A-CB5BBE1B85C2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -979,13 +979,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{039F3AEF-705A-407B-9BC8-F0CD2903C779}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{816A24B9-3E94-40CE-96BA-368E69C4BAE4}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{9AD8C0E1-7BAB-4C06-9300-1235E192E83A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B7B591F9-0266-4349-BF93-1F63EE109101}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{76F9A760-7F59-44F6-AF60-12ED917611C9}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{1C332132-253F-4A2A-A141-3E142AFA6D98}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{34F68973-E86D-4F2B-8442-4612FD9C538C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F333BB34-991D-4229-A935-5CD7E6D4CFFD}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D44DB910-962A-4568-A399-056E7378A80F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A64B93BE-69C3-4907-8DB4-1A2778A6BAF0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{DBE7DA11-D39A-406B-8660-3E97288FDE34}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{61552ADB-BBEA-4B4D-AB80-02222B5FB1B7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{FC70A8F7-DCF8-4A79-8CE1-E0C10179F8FF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7D987A60-AE71-435C-A7C5-D7582CFA0A37}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD11BD-A049-45F2-A883-B3F5BAF59E72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF3D60B-C6CF-4C40-8F8F-36DA81BEDBBD}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2681,17 +2681,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C88EA5A-B972-4AF2-BAA2-16619C4E3E0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29D0E1A3-8443-45D9-9863-387B14D2BC36}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{38C3573B-2528-44AB-B98B-58B297BDCA8E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{10E29D23-B837-4A29-8C8F-94319072FE9A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E093A779-D820-4AA6-A1B4-742C3BE9DD0B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37967BE4-64CB-4220-B6ED-D01775A45396}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{142048B5-5B2B-4372-A2D0-ED904787E0FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{219764E9-7A9E-4C97-9D54-C0979B3F6853}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A6D57B93-5875-43CC-B2ED-66714CFB8236}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B2014903-085C-4210-80D2-76F06F65764D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22E133FF-EF3C-45F6-BBD6-4DC88F210A1F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{646F3C8F-09C2-44EE-8EE4-707EB9432952}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09FEA70D-F328-40BC-A1D3-5A618C2714C8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69EE5EF3-1D4C-4B1D-B694-2AD191FD07A6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{20D06C8E-A3A9-41C4-BEA3-B66576B8F196}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{141D3CC0-01FC-4872-8405-97168BDA7CC9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06108F37-2BB5-4853-B50D-4EBD0612ECFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F77FD018-5B90-4B44-8D16-B2680708F44A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB36FDD2-2AB9-4356-BAB8-CA5D17029ACC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CC35A421-9A04-4A1F-AC25-E36CFA28E428}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C365CF94-9C3D-441E-94E4-F436AF23E2D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24712485-0EAF-4BA2-B4EC-5DC7917A2379}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2704,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777BD23C-948E-44D1-ADC3-FDCB7E318036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C41774-A5CA-4A16-89FD-DBFAE2AAEC3A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4023,17 +4023,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBD74BD8-B271-49BF-B2DE-CD9854DAAB7A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{389B8C51-2822-459E-8285-B3C5D857C01B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{92FB012F-7B6F-454F-ADF0-344E69BC136F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF5FD04F-8CA0-4316-B6BE-F00206F354A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D037A9BE-A3BF-4B28-B618-F729C2BD2750}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1276B4DB-7115-49C0-A71D-ED6601FD116E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D24A4077-01CC-472D-A2DD-67D974F45C4B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2AD77E4F-833F-40B2-9347-BD911719E301}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E61B9496-B74C-469E-A529-D670714E5B66}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{915FDF50-4133-4273-B2E3-DA8FFEC5B707}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F935D36D-DD14-4291-B9B4-1765DC56057F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A66C55DD-A706-44CE-B2F9-AE9FEABA9C0B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{688F1EA6-95B7-4731-A64F-B249330AD8D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2EB7202-DAF8-451F-BE0F-A5011AD26C7F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A5B8109-E18A-44AA-AB56-6C26ABBA05AC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F855E14-92B9-4E6B-B8F3-5B78B1B1DDCF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A671C85-67CB-47F0-80FE-CFC05AAD4952}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3BE07FCE-B8F2-4F8B-B911-E5A2FDBE2673}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FBC8788-D2AC-4EA7-9E71-11B9A6D04CF3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4F44FA23-25AB-4C44-B55D-C703ABC0C117}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0B416390-0DBA-4960-A897-7310C86C11E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{130AA5E7-6565-4FB1-81CA-06A1460CB265}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4046,7 +4046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EDDF09-11AC-404F-B391-7850EF98376E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F56474-9B7E-4A58-B925-F73A814601AF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5365,17 +5365,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64A0CFD1-5708-404F-BEBE-3575D4766924}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE5B6800-4BAF-460A-ABCC-2E0E40638473}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7FBCFDB-071C-47E2-BB49-306A28D11FAB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C762BE9B-7909-4B4D-BDDA-48257C3A585E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11407AB3-01D2-4CD3-8D29-A791155E6062}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6EFDD520-9FB8-44C3-B99D-95C7DC6FF79C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A11B9791-648B-4807-AEEB-B13CE19AA98A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9E21324-FD1B-4173-872F-075D856B8B31}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BC7FCFD6-D778-4826-8049-68DE6A7E823E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{06C1BF89-BA57-442B-8E3F-40F33EF03DAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B46A48D7-A58A-410B-A51B-AE259E2EFD77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33FCBAD8-141C-4E7C-8E83-C4048B86E425}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07A7DD7A-1A21-4349-B86F-D6C8AEA0D0A3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B2F571B-C848-4C1F-8138-7FD8A748D91E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16B9F77A-CA3E-47F4-84A4-EDD64776EFDC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98AD06C3-6F30-4669-98F1-DDDC8A84D402}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D382C813-009F-46CA-A720-9C50B6B7D1CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C19A9103-E846-428C-B5A2-BBD0B61901C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4D1B0B3-8305-4C6A-AD57-B01B8BB251FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A8686BD1-E022-4F16-9243-F4166ED874AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{47050ACB-0680-4709-84C3-3F4C4EC669DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{488C5777-8C44-4F8A-857A-3AB40A54D0A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5388,7 +5388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4B8530-E426-4F55-8E17-8D45F948F82E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733A1191-69A4-4AD0-A09F-AE18E93A9368}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6707,17 +6707,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E02410AF-78BE-4F1C-B496-800BB14DB4AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2380C62D-45BD-481A-AF24-75A6F1D0FFA7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FA24D274-4F2D-4B65-A256-44BC655DD319}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C72795D3-DD03-4480-9D55-8036F8589CE0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E42A44DE-ACA4-4C90-86B3-50CFCEF60288}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74164C55-1BAD-418B-B85C-504F5D728EB9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1AAFDD55-9C8B-4A35-A4D3-F5F40508B096}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{838C07FF-7DD6-43EE-9DE3-94D7C7601D22}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{53120049-94E4-4D4B-B864-9BE186B6F1D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B3F64D50-7142-41EA-86B7-E79BA38634AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44BC6C13-2914-4C48-908B-4016307BC112}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B681F527-1FC1-48ED-AD68-35BEF7D1C393}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C842BF3-EF09-41F2-AE53-E002661EF4FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0B187D6-68F4-4CB3-9061-9DDC758C3BAD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B474B18E-C534-4D65-8A72-87EDBB7D938E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDBE0B28-3C82-429F-8AC1-CED7B323B047}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{07F9EE80-0A9E-4CFE-B8EA-3E26311D4C74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12BA5C7A-638E-4D07-8210-BBC74D8D0C2E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBA1DA32-F453-4567-86DF-60B058CD526D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{09B99BCC-E941-4028-9F79-D97BE0941F3F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{70102E4F-1688-4276-A20D-1738C57F1E69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06BA8641-C5B0-45EF-A12C-5EA4C8D7944D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6730,7 +6730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A17746A-4F43-4ED4-B9F1-4595567752E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A32A37-C7DB-4362-8E77-AD585DAC92FD}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8053,17 +8053,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36E70E12-E3EF-4470-927C-501C78F1EC5A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF3E3808-814E-4FF5-9097-5F182539FC15}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{32840BBD-1B74-48DB-B24C-FBC76EA8BE69}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C403057-142F-47F8-984D-8DF9EE9E6AA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F661206A-E154-451D-83E5-B780F688E7F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4DBC651B-95A6-40E0-A790-F529E311FD6E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2305891C-EA84-4FF7-88D7-DB92396DC025}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B90B3ED-B8E3-40D9-8C71-D564A066AC4D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{927D56C2-E834-4EA1-A5EB-0BD27F519C41}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{22408B48-81A0-4E3B-B8E7-D793F01340D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D700B2E-BA0C-442E-BE7C-8B4F5CDD3173}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7047283-E374-4189-BD60-A212F77959EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90ADB7F9-B441-4680-92B8-9FD31BEFDA1B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76F45336-D0B5-4FB7-8ABE-A7445A07C3DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B7C4DB2-5D55-4C70-BCC7-6BC3CC0386D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D67ACE33-00B2-4C41-9ACB-68FE2DD4DE2A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55F7A115-489F-49E6-B27D-BE11273C28BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E45DB093-26B5-4C87-960F-3BCEC9A10375}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11D6C10E-F5C0-40EB-B29B-B9FF58921BC3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FD53E0A8-9413-4B99-8C25-B916AB2D443E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{02774C57-FF8C-4127-B611-1FB11911578E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0207CDAA-21B6-42DB-BD1C-60CC775A1F09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8076,7 +8076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC391A1-B660-4DDB-9DE2-DDABC9BE1D42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDA837A-25D4-4B46-A9AC-18C8A9633FCA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9399,17 +9399,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{43E688F7-F9A9-44F5-92DC-7FDF17D2509E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B775457-21A4-4EB2-8229-954D9D60D3EB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{434E279C-B944-4D7E-98BA-63843B29C9C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FFAF5664-FFDF-436A-8464-A609B6189EF5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30A6F679-2D6E-4610-9DF1-DB19CD2C203D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4BB47E12-092F-44E2-A2AA-89EC86ACFE85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{756D25ED-70F1-4FD4-8B28-4CE4824F0C69}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF21A618-FC01-44C7-A7FB-0DE5A5AE9746}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BBF67BBF-E357-43FF-BBDC-5D59B1067447}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D1ACEED5-1C94-4E92-9418-861516C80A51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6A72DAD-1E9B-4F90-A308-6A911091CFEF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F0269A1A-1FCF-41DF-9DAA-71E480488B31}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFA4F2E1-D420-465A-B54D-A1E72F8CF7F3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F068E0D9-2E4A-40CE-868B-9C79FE52F7FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{638A03EF-128D-42E8-A84A-7E63AC0E0CF3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C4BF695-840C-41FE-B033-8986F9698204}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{512C55D3-7B06-49A6-98B4-C453A36B7D8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B23E46FB-6F57-40B0-BFBB-7F23C37FA6F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92502914-3842-4070-B4AB-E66E1212CB77}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9A0AF728-737A-4BFA-A22D-EE7F633E581F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E7F66AF5-A7DB-4592-811F-F81D52EA41E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0BA4168-C54E-4E24-8944-B2FB7C1BB8BC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9422,7 +9422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636A8630-233A-4329-B546-D99193BD567E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67149C46-37FE-4251-91F2-B360C4AB2DF0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10745,17 +10745,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{932D5659-859B-41BB-A62A-37F7DD11CCC1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB9F6DBF-0F6E-4CC0-85D7-1A454895B6C4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05EE03BC-C452-4EFA-9672-92F9BB3E3B2E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8F8FBDD6-F34F-4C1E-BC02-E2049521C4C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8C2B8EA-842D-4719-B6C6-E1E380060D69}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9548C96-7644-4833-B8FC-79173AA14406}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37CD9509-DB34-428C-BD30-2336A79017C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2917DA80-F301-4CFD-B070-7F15949FB735}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7B7FB8AA-86C4-438C-8D9E-6AE5E69BFE7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9D9C1AEB-3FBD-4F65-8513-6E4E5E109169}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C990D53F-B5E6-4580-AE06-8859E387FC7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E24A2B2-B7CC-47D9-BFEC-0BF2B19F816D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AB420FB-95E0-4636-BDDB-9F8AF9739B54}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{97711600-66CE-4D76-B333-1D203C362946}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{03C07C11-27AD-4C0E-8F8F-81B7566FE933}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3125488-7FCB-4DBE-86D2-C3B9D305CDC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B068607-EA65-4919-B5EF-A35C9E21F781}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDBA4ECC-BCB4-416B-86CD-AC0FA76860F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16C5BCF5-AB3F-461D-AE5C-9D341D4D9250}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{03172025-7BFC-453C-88CB-422ECCEDDA8B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4AC2E3BC-2562-4F63-BDAC-5E26D986B24A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2E4A5B5-B223-4C79-91AE-04D05A99CCBE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10768,7 +10768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5969148-8062-4997-BFE0-2594E7F13B4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F302A8C6-2A6B-46EA-8348-0C2737A9BC1D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12091,17 +12091,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45664B26-F640-4DAC-98AC-BCBF74B96905}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0BED575-5C11-4CC2-B88A-31F1E9B19E93}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0540FBC-6026-4370-8D1B-FEF1BE6AF51C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AF352FC3-5974-47DB-ACE0-6F8A38F1C82F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A75CFF03-741B-4160-A1D8-5CC3E58E6FDB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE058D10-1AFD-44A4-8628-9CD58D966522}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34C86DD1-1074-4965-A696-219C147C8B4E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28C273E6-718D-46F6-A5F1-6603F01BEB02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{13465350-6DBB-4A5B-A97E-2022944EF060}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{580D01FF-0A2B-4E3B-A6FC-7FE151BF1C85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{616D1181-4FA2-4E99-BE5C-7837E6467399}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFCE206E-F71B-4495-8D0B-409F65DD9757}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBD65362-BB29-4C26-84BB-CB83784F6277}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A520DBF4-615F-428B-B924-20804AEC9CF1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43AFFCB2-53CD-4686-9CAE-4CB809AAA214}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D54F4E2F-1C43-45E4-942F-0D7363DAB71C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE40DF48-D2A9-4BE0-A305-BF7ED06CA666}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFE54B65-C3D2-4D56-B798-C550609E6728}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20FF8765-24E7-46EF-AD1F-0A3BEC36EC74}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F98B9AD6-EA99-4694-915E-F22C24657DB7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{037B15E8-2980-4C94-819A-579763D0566B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{125067FC-B39B-42D2-B761-E06E24FB6B9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12114,7 +12114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA47D78-6DD0-488F-9F45-0C41248C63CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDBA340-40AB-4257-9554-E6B54509B510}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13437,17 +13437,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46DC3992-AB84-4906-BE53-C9611034C7B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2A38D9A-EF27-4BE4-9A7C-845E50DC2DEE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D76A80E-3BC0-41DD-8E43-CBD289ACBDEC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3B5E516-7A56-4A6E-99FC-91E5C59A3CA2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{845D8C66-55B1-46E4-B616-CB18CA19A908}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE7CCC26-85DA-4CE0-A611-E0256597687E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EAF6D6D-DF88-4CF1-B38D-A8903EDD8D0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B8A4E97-1E00-470E-90B5-8820E8F01BAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D91F9329-9247-48F0-96CE-C5BC9D3FCFD6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{67BB7B29-8C48-48A3-887C-42D5397EB2D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9F733EB-07CF-493B-8D04-4EA7044F8564}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0AC859C-CD57-4FBC-8A1C-525B9BB16A03}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F08D350-C931-4426-93A5-1AB756ACFD1B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79C6D618-3D53-413B-9D99-6982CA8EA310}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D5B1253-F2EC-48DF-B4C3-69F1833170D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C345C83-0029-43BD-828B-E67A4F7C7D7A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{771EF64E-A703-4C24-9449-5C82648E6D3D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF777EAB-77EF-4AFE-8D1A-40780A9BC57C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{582BD20B-3B78-4F4C-B44A-8DB374EE2150}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{207005DF-0BB7-412D-A4C0-94D7572A3C5F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B5230D45-4DA7-4990-A096-C424192B05AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35D52DCB-778D-439B-A795-DBD34BA0713F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13460,7 +13460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414A2B21-AF72-4FE2-A05B-E774B88E2A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F4A5D7-5CBF-4214-9D12-2C98D687F1CF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14779,17 +14779,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B6BCCDA-B5C3-47EB-9578-A01402A49133}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41593FE3-43EF-4705-B450-FB1B84C2E62D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A9A013C6-7926-4930-90FE-19FA8CDC24C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA5ABD22-A3AC-4D21-A5C5-F6D44E10307A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF20CDB0-7A56-4B3F-B87E-B9D9817F415B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF4910FE-CFD2-4FC4-ACEE-B8A92A9B4C91}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96E1852C-EEC8-4112-937E-435D5352FEAE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4ECDD374-7B77-4743-A4FC-D59EBCE52814}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B56FB1E3-9AA5-4222-991E-74F9E3D24E46}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DBB97BDC-4382-4EC8-847A-665BB786B004}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF713814-6421-40CA-8B74-0610F6AB4DE7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FEEB843-BDB0-464C-B425-AEB062C110C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9051BEB-509B-4391-839E-CBEBAA47B0FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01B6C065-DD06-49C1-8E8A-271FC73B8EF3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3CBBE457-A6A3-47B8-8BB4-489EA620DE50}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5426D91-56F3-4404-9070-7E5E43E55D59}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0FB92360-AEED-42FA-9FB4-8D5D40B47206}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D6E1BC3-CFAF-4300-829E-F1F082DBE0BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF302F9B-E2B7-49E3-93E4-CC8033BF7450}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{22CB3007-9B93-4639-B7C0-9D0861295774}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{58A14BF0-1F66-4DAD-99D5-9871419DFB1C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04DFD677-B5C9-4F05-A7BE-EAB7BA06A755}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14802,7 +14802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B005646C-F5A2-4C2F-AD56-009A66CB6D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44D3650-B46D-4606-884A-47374F7A65D4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16121,17 +16121,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19D9265F-BC24-4407-9629-32BCF7C326E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BF2EF1B-4383-4AFD-A4D2-25B57898FA4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5B82F4E7-3203-4C17-91E4-98EAD6C576CC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B90DDB3D-3A34-498C-AADB-EDA3281264C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F4EFEFE-51CE-4464-A0C6-D9467BCCAD15}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AFCE124B-58AB-444F-92F9-EFF73FE4F1CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED6915C1-4736-4E12-B8BF-63BC8FE06071}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C13F26D2-B5C3-4BBB-85BB-A58D6327F287}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EB74BE2F-2EB9-4DA3-AFE6-1B4B1DC7EB06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{423C1EEF-9EF8-4C13-B99D-304CBF38ED2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{08631CDE-A410-48C4-94BC-102AD62D5689}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{197F1B25-CFA1-46CA-B513-F75AA935263E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDB311D0-8748-4472-A6EE-A9C226FAF5AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{65383FE8-E461-4BB3-92CC-43981E163000}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{676473E1-EC19-4716-B874-BECA9FFE975E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{130A022A-856B-4808-9CA8-A6E2626E52D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70611C8E-961A-4FCD-A4F5-96BCF47E5BA1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F059E21-00AB-4B07-B161-9ED97DEAC3B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE3D490C-F12B-40D7-BFC2-C3EBA33EA504}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{40A423B8-906C-4002-A361-0BEA1413CFC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DA05FEDC-792F-494F-8D78-F4F6C0612435}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CEAB2A39-AD03-40A4-ACB7-0453C0A64C9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16144,7 +16144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFA1C5C-30F2-4D89-8AC4-8A9F22976CEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4776EE9-07B9-46A0-8DDC-0C2D87DC59CC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17463,17 +17463,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77F8A4BF-DBA0-4B14-8753-DCA2D3901483}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5483888C-2C5C-4140-AA42-661DB0A80FA6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ED7C7A3A-710B-4DC7-8FA8-7D2FA13AF863}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFD4F394-033A-43E9-997F-A969D44EA96B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B24A611-F23B-4290-ABF2-A0235F7795F6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF392A4E-059B-4628-BFC7-53B38CDD5A96}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC713944-EE05-432D-970E-3A7EEFBFDC61}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E159EABE-1B77-4F8C-A991-C48103042413}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8942DC82-D6FA-4E85-8354-32A21B67E0AB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ADACC129-A8A8-4B3D-8A27-13531711DBB5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C356B45E-53E8-4E4B-A4A4-3447A869EC4F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6508FA93-7D6B-4430-A125-C4C57AAC9943}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1912D65-05BE-46CF-A5D0-3DEA74688E02}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{456EAF65-19E2-49C6-99DE-BCD74080D9EB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{67504F34-29B7-41A1-BB39-07ABD043CCAF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB334C49-D352-408F-B99A-B5EC636338AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{257C1776-AFB5-40F7-B9A6-386003E0B2C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F9B8A6C-80C0-45EF-82E7-3F79D4F44F59}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53E86B0E-400D-4291-A330-9128348815BD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8B4FC693-7224-4081-8C16-40D64A30BA5A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A3C3BB7A-DA03-45F9-9D6D-53810A04D264}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44C61A89-9E4E-46D6-8DC6-058647E8D705}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
